--- a/troops-domestic-by-service-state-20170822/troops-domestic-by-service-state-20170822.xlsx
+++ b/troops-domestic-by-service-state-20170822/troops-domestic-by-service-state-20170822.xlsx
@@ -23,12 +23,6 @@
     <t>value</t>
   </si>
   <si>
-    <t>headline</t>
-  </si>
-  <si>
-    <t>How Are U.S. Forces Deployed Domestically?</t>
-  </si>
-  <si>
     <t>Army</t>
   </si>
   <si>
@@ -44,16 +38,34 @@
     <t>Coast Guard</t>
   </si>
   <si>
+    <t>headline</t>
+  </si>
+  <si>
+    <t>How Are U.S. Forces Deployed Domestically?</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
     <t>subhed</t>
   </si>
   <si>
     <t>Proportion of active duty personnel in each state, by branch: June 2017</t>
   </si>
   <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
     <t>footnote</t>
   </si>
   <si>
-    <t>Kentucky</t>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Colorado</t>
   </si>
   <si>
     <t>source</t>
@@ -62,25 +74,13 @@
     <t>&lt;a href="https://www.dmdc.osd.mil/appj/dwp/dwp_reports.jsp"&gt;U.S. Defense Manpower Data Center&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>New York</t>
+    <t>Missouri</t>
   </si>
   <si>
     <t>credit</t>
   </si>
   <si>
     <t>Matt Stiles/The Daily Viz</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>Missouri</t>
   </si>
   <si>
     <t>Texas</t>
@@ -233,12 +233,12 @@
       <sz val="14.0"/>
     </font>
     <font>
-      <sz val="14.0"/>
-    </font>
-    <font>
       <sz val="11.0"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
     </font>
     <font/>
   </fonts>
@@ -263,21 +263,14 @@
     </fill>
   </fills>
   <borders count="2">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -285,47 +278,47 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -336,15 +329,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -361,468 +357,468 @@
       <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3"/>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3"/>
+      <c r="Y1" s="3"/>
+      <c r="Z1" s="3"/>
     </row>
     <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-      <c r="T2" s="5"/>
-      <c r="U2" s="5"/>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
-      <c r="X2" s="5"/>
-      <c r="Y2" s="5"/>
-      <c r="Z2" s="5"/>
+      <c r="A2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Y2" s="7"/>
+      <c r="Z2" s="7"/>
     </row>
     <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-      <c r="T3" s="5"/>
-      <c r="U3" s="5"/>
-      <c r="V3" s="5"/>
-      <c r="W3" s="5"/>
-      <c r="X3" s="5"/>
-      <c r="Y3" s="5"/>
-      <c r="Z3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Y3" s="7"/>
+      <c r="Z3" s="7"/>
     </row>
     <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-      <c r="S4" s="5"/>
-      <c r="T4" s="5"/>
-      <c r="U4" s="5"/>
-      <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-      <c r="X4" s="5"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="5"/>
+      <c r="A4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
     <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="5"/>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="5"/>
-      <c r="Z5" s="5"/>
+      <c r="A5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Y5" s="7"/>
+      <c r="Z5" s="7"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-      <c r="R6" s="5"/>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="5"/>
-      <c r="Z6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
+      <c r="Z6" s="7"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-      <c r="P7" s="5"/>
-      <c r="Q7" s="5"/>
-      <c r="R7" s="5"/>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="5"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
+      <c r="Z7" s="7"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="5"/>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="5"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-      <c r="P9" s="5"/>
-      <c r="Q9" s="5"/>
-      <c r="R9" s="5"/>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="5"/>
-      <c r="Z9" s="5"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
+      <c r="Z9" s="7"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="5"/>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
-      <c r="Z10" s="5"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
+      <c r="Z10" s="7"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="5"/>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="5"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
+      <c r="Z11" s="7"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-      <c r="P12" s="5"/>
-      <c r="Q12" s="5"/>
-      <c r="R12" s="5"/>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="5"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="5"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
+      <c r="Z12" s="7"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
-      <c r="N15" s="5"/>
-      <c r="O15" s="5"/>
-      <c r="P15" s="5"/>
-      <c r="Q15" s="5"/>
-      <c r="R15" s="5"/>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="5"/>
-      <c r="Z15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
-      <c r="N16" s="5"/>
-      <c r="O16" s="5"/>
-      <c r="P16" s="5"/>
-      <c r="Q16" s="5"/>
-      <c r="R16" s="5"/>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="5"/>
-      <c r="Z16" s="5"/>
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
+      <c r="Z16" s="7"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -831,6 +827,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -845,291 +844,291 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="8"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+      <c r="AA1" s="4"/>
+      <c r="AB1" s="4"/>
+      <c r="AC1" s="4"/>
+      <c r="AD1" s="4"/>
+      <c r="AE1" s="4"/>
+      <c r="AF1" s="4"/>
+      <c r="AG1" s="4"/>
+      <c r="AH1" s="4"/>
+      <c r="AI1" s="4"/>
+      <c r="AJ1" s="4"/>
+      <c r="AK1" s="4"/>
+      <c r="AL1" s="4"/>
+      <c r="AM1" s="4"/>
+      <c r="AN1" s="4"/>
+      <c r="AO1" s="4"/>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="AX1" s="4"/>
+      <c r="AY1" s="4"/>
+      <c r="AZ1" s="4"/>
+      <c r="BA1" s="4"/>
+      <c r="BB1" s="4"/>
+      <c r="BC1" s="6"/>
     </row>
     <row r="2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="8">
+        <v>98.48</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.31</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.68</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10">
-        <v>98.48</v>
-      </c>
-      <c r="C2" s="10">
-        <v>0.03</v>
-      </c>
-      <c r="D2" s="10">
-        <v>0.31</v>
-      </c>
-      <c r="E2" s="10">
-        <v>0.68</v>
-      </c>
-      <c r="F2" s="10">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="10" t="s">
+      <c r="B3" s="8">
+        <v>84.43</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.35</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.44</v>
+      </c>
+      <c r="E3" s="8">
+        <v>14.29</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="8">
+        <v>79.79</v>
+      </c>
+      <c r="C4" s="8">
+        <v>10.58</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3.11</v>
+      </c>
+      <c r="E4" s="8">
+        <v>1.62</v>
+      </c>
+      <c r="F4" s="8">
+        <v>4.9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="10">
-        <v>84.43</v>
-      </c>
-      <c r="C3" s="10">
-        <v>0.35</v>
-      </c>
-      <c r="D3" s="10">
-        <v>0.44</v>
-      </c>
-      <c r="E3" s="10">
-        <v>14.29</v>
-      </c>
-      <c r="F3" s="10">
-        <v>0.49</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="10" t="s">
+      <c r="B5" s="8">
+        <v>76.9</v>
+      </c>
+      <c r="C5" s="8">
+        <v>6.07</v>
+      </c>
+      <c r="D5" s="8">
+        <v>2.2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>14.05</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.78</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="10">
-        <v>79.79</v>
-      </c>
-      <c r="C4" s="10">
-        <v>10.58</v>
-      </c>
-      <c r="D4" s="10">
-        <v>3.11</v>
-      </c>
-      <c r="E4" s="10">
-        <v>1.62</v>
-      </c>
-      <c r="F4" s="10">
-        <v>4.9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="10" t="s">
+      <c r="B6" s="8">
+        <v>70.76</v>
+      </c>
+      <c r="C6" s="8">
+        <v>2.19</v>
+      </c>
+      <c r="D6" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="E6" s="8">
+        <v>26.3</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="10">
-        <v>76.9</v>
-      </c>
-      <c r="C5" s="10">
-        <v>6.07</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="B7" s="8">
+        <v>58.1</v>
+      </c>
+      <c r="C7" s="8">
+        <v>2.27</v>
+      </c>
+      <c r="D7" s="8">
+        <v>10.88</v>
+      </c>
+      <c r="E7" s="8">
+        <v>27.45</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8">
+        <v>57.92</v>
+      </c>
+      <c r="C8" s="8">
+        <v>5.54</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1.87</v>
+      </c>
+      <c r="E8" s="8">
+        <v>33.09</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="8">
+        <v>57.39</v>
+      </c>
+      <c r="C9" s="8">
+        <v>11.21</v>
+      </c>
+      <c r="D9" s="8">
+        <v>19.47</v>
+      </c>
+      <c r="E9" s="8">
+        <v>8.36</v>
+      </c>
+      <c r="F9" s="8">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="8">
+        <v>56.5</v>
+      </c>
+      <c r="C10" s="8">
+        <v>6.8</v>
+      </c>
+      <c r="D10" s="8">
         <v>2.2</v>
       </c>
-      <c r="E5" s="10">
-        <v>14.05</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0.78</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="10">
-        <v>70.76</v>
-      </c>
-      <c r="C6" s="10">
-        <v>2.19</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0.64</v>
-      </c>
-      <c r="E6" s="10">
-        <v>26.3</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="10">
-        <v>58.1</v>
-      </c>
-      <c r="C7" s="10">
-        <v>2.27</v>
-      </c>
-      <c r="D7" s="10">
-        <v>10.88</v>
-      </c>
-      <c r="E7" s="10">
-        <v>27.45</v>
-      </c>
-      <c r="F7" s="10">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="10">
-        <v>57.92</v>
-      </c>
-      <c r="C8" s="10">
-        <v>5.54</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1.87</v>
-      </c>
-      <c r="E8" s="10">
-        <v>33.09</v>
-      </c>
-      <c r="F8" s="10">
-        <v>1.58</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="10">
-        <v>57.39</v>
-      </c>
-      <c r="C9" s="10">
-        <v>11.21</v>
-      </c>
-      <c r="D9" s="10">
-        <v>19.47</v>
-      </c>
-      <c r="E9" s="10">
-        <v>8.36</v>
-      </c>
-      <c r="F9" s="10">
-        <v>3.57</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="10">
-        <v>56.5</v>
-      </c>
-      <c r="C10" s="10">
-        <v>6.8</v>
-      </c>
-      <c r="D10" s="10">
-        <v>2.2</v>
-      </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>34.31</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>0.19</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="8">
         <v>56.1</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="8">
         <v>25.15</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="8">
         <v>1.51</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>12.6</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>4.64</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="10">
+      <c r="B12" s="8">
         <v>53.73</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="8">
         <v>1.5</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="8">
         <v>1.75</v>
       </c>
-      <c r="E12" s="10">
+      <c r="E12" s="8">
         <v>33.11</v>
       </c>
-      <c r="F12" s="10">
+      <c r="F12" s="8">
         <v>9.91</v>
       </c>
       <c r="G12" s="11"/>
@@ -1183,42 +1182,42 @@
       <c r="BC12" s="12"/>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <v>51.88</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="8">
         <v>2.72</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="8">
         <v>4.44</v>
       </c>
-      <c r="E13" s="10">
+      <c r="E13" s="8">
         <v>33.32</v>
       </c>
-      <c r="F13" s="10">
+      <c r="F13" s="8">
         <v>7.64</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <v>51.56</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="8">
         <v>0.27</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="8">
         <v>0.13</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="8">
         <v>37.68</v>
       </c>
-      <c r="F14" s="10">
+      <c r="F14" s="8">
         <v>10.36</v>
       </c>
       <c r="G14" s="12"/>
@@ -1272,242 +1271,242 @@
       <c r="BC14" s="11"/>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="8">
         <v>45.15</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>4.9</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D15" s="8">
         <v>12.41</v>
       </c>
-      <c r="E15" s="10">
+      <c r="E15" s="8">
         <v>8.01</v>
       </c>
-      <c r="F15" s="10">
+      <c r="F15" s="8">
         <v>29.53</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="10">
+      <c r="B16" s="8">
         <v>44.34</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="8">
         <v>21.11</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="8">
         <v>18.09</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E16" s="8">
         <v>13.16</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F16" s="8">
         <v>3.3</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10">
+      <c r="B17" s="8">
         <v>43.29</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="8">
         <v>4.44</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="8">
         <v>43.86</v>
       </c>
-      <c r="E17" s="10">
+      <c r="E17" s="8">
         <v>6.57</v>
       </c>
-      <c r="F17" s="10">
+      <c r="F17" s="8">
         <v>1.84</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="10">
+      <c r="B18" s="8">
         <v>36.95</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="8">
         <v>8.84</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D18" s="8">
         <v>28.92</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E18" s="8">
         <v>11.65</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F18" s="8">
         <v>13.64</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="10">
+      <c r="B19" s="8">
         <v>34.02</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="8">
         <v>29.22</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D19" s="8">
         <v>15.42</v>
       </c>
-      <c r="E19" s="10">
+      <c r="E19" s="8">
         <v>8.09</v>
       </c>
-      <c r="F19" s="10">
+      <c r="F19" s="8">
         <v>13.25</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B20" s="10">
+      <c r="B20" s="8">
         <v>28.49</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="8">
         <v>34.6</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="8">
         <v>6.28</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="8">
         <v>27.6</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F20" s="8">
         <v>3.03</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B21" s="10">
+      <c r="B21" s="8">
         <v>28.45</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="8">
         <v>19.41</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="8">
         <v>27.66</v>
       </c>
-      <c r="E21" s="10">
+      <c r="E21" s="8">
         <v>22.04</v>
       </c>
-      <c r="F21" s="10">
+      <c r="F21" s="8">
         <v>2.44</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="10">
+      <c r="B22" s="8">
         <v>27.68</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="8">
         <v>6.78</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D22" s="8">
         <v>10.17</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E22" s="8">
         <v>35.03</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F22" s="8">
         <v>20.34</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="10">
+      <c r="B23" s="8">
         <v>27.67</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="8">
         <v>1.94</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="8">
         <v>23.3</v>
       </c>
-      <c r="E23" s="10">
+      <c r="E23" s="8">
         <v>14.08</v>
       </c>
-      <c r="F23" s="10">
+      <c r="F23" s="8">
         <v>33.01</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="10">
+      <c r="B24" s="8">
         <v>26.19</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="8">
         <v>25.86</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="8">
         <v>20.26</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E24" s="8">
         <v>7.74</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F24" s="8">
         <v>19.95</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="10">
+      <c r="B25" s="8">
         <v>25.2</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="8">
         <v>44.8</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="8">
         <v>12.15</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="8">
         <v>13.25</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="8">
         <v>4.6</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="8">
         <v>22.81</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="8">
         <v>2.25</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="8">
         <v>24.51</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="8">
         <v>50.4</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="8">
         <v>0.03</v>
       </c>
       <c r="G26" s="11"/>
@@ -1561,322 +1560,322 @@
       <c r="BC26" s="11"/>
     </row>
     <row r="27">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B27" s="10">
+      <c r="B27" s="8">
         <v>20.13</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="8">
         <v>10.32</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="8">
         <v>11.58</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="8">
         <v>4.9</v>
       </c>
-      <c r="F27" s="10">
+      <c r="F27" s="8">
         <v>53.07</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="10">
+      <c r="B28" s="8">
         <v>16.54</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="8">
         <v>26.47</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28" s="8">
         <v>22.5</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28" s="8">
         <v>16.94</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F28" s="8">
         <v>17.55</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B29" s="10">
+      <c r="B29" s="8">
         <v>15.5</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="8">
         <v>63.29</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="8">
         <v>6.41</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="8">
         <v>7.45</v>
       </c>
-      <c r="F29" s="10">
+      <c r="F29" s="8">
         <v>7.35</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="8">
         <v>9.83</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="8">
         <v>10.79</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="8">
         <v>5.15</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="8">
         <v>27.75</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="8">
         <v>46.48</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="8">
         <v>9.56</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="8">
         <v>37.11</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="8">
         <v>6.7</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="8">
         <v>38.14</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="8">
         <v>8.49</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="8">
         <v>8.34</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="8">
         <v>5.94</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="8">
         <v>4.92</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="8">
         <v>57.4</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="8">
         <v>23.4</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="8">
         <v>7.48</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="8">
         <v>10.68</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="8">
         <v>7.54</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="8">
         <v>8.5</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="8">
         <v>65.8</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="8">
         <v>7.16</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="8">
         <v>4.24</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="8">
         <v>4.11</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="8">
         <v>78.39</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="8">
         <v>6.1</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="8">
         <v>6.41</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="8">
         <v>28.62</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="8">
         <v>7.45</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="8">
         <v>18.3</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="8">
         <v>39.22</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="8">
         <v>5.52</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="8">
         <v>18.16</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="8">
         <v>3.19</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="8">
         <v>1.23</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="8">
         <v>71.9</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B37" s="10">
+      <c r="B37" s="8">
         <v>5.16</v>
       </c>
-      <c r="C37" s="10">
+      <c r="C37" s="8">
         <v>35.26</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D37" s="8">
         <v>42.97</v>
       </c>
-      <c r="E37" s="10">
+      <c r="E37" s="8">
         <v>13.06</v>
       </c>
-      <c r="F37" s="10">
+      <c r="F37" s="8">
         <v>3.55</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B38" s="10">
+      <c r="B38" s="8">
         <v>4.93</v>
       </c>
-      <c r="C38" s="10">
+      <c r="C38" s="8">
         <v>70.23</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D38" s="8">
         <v>2.0</v>
       </c>
-      <c r="E38" s="10">
+      <c r="E38" s="8">
         <v>22.13</v>
       </c>
-      <c r="F38" s="10">
+      <c r="F38" s="8">
         <v>0.71</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="10">
+      <c r="B39" s="8">
         <v>4.58</v>
       </c>
-      <c r="C39" s="10">
+      <c r="C39" s="8">
         <v>0.83</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D39" s="8">
         <v>2.59</v>
       </c>
-      <c r="E39" s="10">
+      <c r="E39" s="8">
         <v>92.0</v>
       </c>
-      <c r="F39" s="10">
+      <c r="F39" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B40" s="10">
+      <c r="B40" s="8">
         <v>4.07</v>
       </c>
-      <c r="C40" s="10">
+      <c r="C40" s="8">
         <v>75.46</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D40" s="8">
         <v>7.98</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E40" s="8">
         <v>1.89</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F40" s="8">
         <v>10.6</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B41" s="10">
+      <c r="B41" s="8">
         <v>3.76</v>
       </c>
-      <c r="C41" s="10">
+      <c r="C41" s="8">
         <v>38.1</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D41" s="8">
         <v>4.08</v>
       </c>
-      <c r="E41" s="10">
+      <c r="E41" s="8">
         <v>51.15</v>
       </c>
-      <c r="F41" s="10">
+      <c r="F41" s="8">
         <v>2.91</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B42" s="10">
+      <c r="B42" s="8">
         <v>3.21</v>
       </c>
-      <c r="C42" s="10">
+      <c r="C42" s="8">
         <v>0.11</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D42" s="8">
         <v>4.73</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E42" s="8">
         <v>91.43</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F42" s="8">
         <v>0.52</v>
       </c>
       <c r="G42" s="11"/>
@@ -1930,202 +1929,202 @@
       <c r="BC42" s="11"/>
     </row>
     <row r="43">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B43" s="8">
         <v>2.76</v>
       </c>
-      <c r="C43" s="10">
+      <c r="C43" s="8">
         <v>6.67</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D43" s="8">
         <v>1.27</v>
       </c>
-      <c r="E43" s="10">
+      <c r="E43" s="8">
         <v>89.04</v>
       </c>
-      <c r="F43" s="10">
+      <c r="F43" s="8">
         <v>0.26</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="8">
         <v>2.42</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="8">
         <v>0.64</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="8">
         <v>0.62</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="8">
         <v>96.28</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="8">
         <v>0.04</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="10">
+      <c r="B45" s="8">
         <v>2.15</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="8">
         <v>81.7</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D45" s="8">
         <v>1.34</v>
       </c>
-      <c r="E45" s="10">
+      <c r="E45" s="8">
         <v>0.75</v>
       </c>
-      <c r="F45" s="10">
+      <c r="F45" s="8">
         <v>14.06</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="10">
+      <c r="B46" s="8">
         <v>2.11</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="8">
         <v>0.47</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D46" s="8">
         <v>0.41</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E46" s="8">
         <v>95.97</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F46" s="8">
         <v>1.04</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="10">
+      <c r="B47" s="8">
         <v>1.88</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="8">
         <v>0.06</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D47" s="8">
         <v>0.42</v>
       </c>
-      <c r="E47" s="10">
+      <c r="E47" s="8">
         <v>97.64</v>
       </c>
-      <c r="F47" s="10">
+      <c r="F47" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="B48" s="10">
+      <c r="B48" s="8">
         <v>1.82</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="8">
         <v>0.18</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D48" s="8">
         <v>0.82</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E48" s="8">
         <v>97.18</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F48" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="10">
+      <c r="B49" s="8">
         <v>1.63</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="8">
         <v>1.2</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D49" s="8">
         <v>1.02</v>
       </c>
-      <c r="E49" s="10">
+      <c r="E49" s="8">
         <v>95.99</v>
       </c>
-      <c r="F49" s="10">
+      <c r="F49" s="8">
         <v>0.16</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="B50" s="10">
+      <c r="B50" s="8">
         <v>1.45</v>
       </c>
-      <c r="C50" s="10">
+      <c r="C50" s="8">
         <v>9.25</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D50" s="8">
         <v>0.53</v>
       </c>
-      <c r="E50" s="10">
+      <c r="E50" s="8">
         <v>88.77</v>
       </c>
-      <c r="F50" s="10">
+      <c r="F50" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="10" t="s">
+      <c r="A51" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="10">
+      <c r="B51" s="8">
         <v>1.18</v>
       </c>
-      <c r="C51" s="10">
+      <c r="C51" s="8">
         <v>0.03</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D51" s="8">
         <v>0.22</v>
       </c>
-      <c r="E51" s="10">
+      <c r="E51" s="8">
         <v>98.57</v>
       </c>
-      <c r="F51" s="10">
+      <c r="F51" s="8">
         <v>0.0</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="10" t="s">
+      <c r="A52" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="B52" s="10">
+      <c r="B52" s="8">
         <v>0.31</v>
       </c>
-      <c r="C52" s="10">
+      <c r="C52" s="8">
         <v>0.09</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D52" s="8">
         <v>0.28</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E52" s="8">
         <v>99.31</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F52" s="8">
         <v>0.01</v>
       </c>
     </row>
